--- a/xlsx/西方_intext.xlsx
+++ b/xlsx/西方_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>西方</t>
   </si>
@@ -29,7 +29,7 @@
     <t>西 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_西方</t>
+    <t>政策_政策_美国_西方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E4%BD%8D</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1</t>
   </si>
   <si>
-    <t>東</t>
+    <t>东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97</t>
   </si>
   <si>
-    <t>東南</t>
+    <t>东南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%90%91</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%96%80%E4%BB%80%E6%B9%96</t>
   </si>
   <si>
-    <t>巴爾喀什湖</t>
+    <t>巴尔喀什湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%AB%BA</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E7%99%BC%E5%B1%95%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已發展國家</t>
+    <t>已发展国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96%E5%9C%88</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>東亞文化圈</t>
+    <t>东亚文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -323,21 +323,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%A5%B5%E6%A8%82%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>西方極樂世界</t>
+    <t>西方极乐世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%B8%AB%E4%BD%9B</t>
   </si>
   <si>
-    <t>藥師佛</t>
+    <t>药师佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E5%87%80%E7%90%89%E7%92%83%E4%B8%96%E7%95%8C</t>
@@ -835,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -864,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -893,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -951,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -980,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1009,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -1038,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2282,7 +2279,7 @@
         <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2308,10 +2305,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2337,10 +2334,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2366,10 +2363,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2395,10 +2392,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2424,10 +2421,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2453,10 +2450,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>13</v>
@@ -2482,10 +2479,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
